--- a/meta/1-1-2.xlsx
+++ b/meta/1-1-2.xlsx
@@ -11,15 +11,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Dato</t>
-  </si>
-  <si>
-    <t>Value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">indicator_name: </t>
+  </si>
+  <si>
+    <t>Proportion of wetland that is degraded over total wetland area</t>
+  </si>
+  <si>
+    <t>indicator_number:</t>
+  </si>
+  <si>
+    <t>1-1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">computation_units: </t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>source_active_1: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_organisation_1: </t>
+  </si>
+  <si>
+    <t>Wetland Statistics Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_url_1: </t>
+  </si>
+  <si>
+    <t>"https://wetlandstaticsagency.org"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reporting_status: </t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -53,18 +83,34 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -283,187 +329,69 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.0</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.0</v>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.0</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>1990.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>16.0</v>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>